--- a/biology/Médecine/Ange-Jean_Guépin/Ange-Jean_Guépin.xlsx
+++ b/biology/Médecine/Ange-Jean_Guépin/Ange-Jean_Guépin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ange-Jean_Gu%C3%A9pin</t>
+          <t>Ange-Jean_Guépin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ange-Jean Guépin, né le 16 octobre 1866 à Bordeaux et mort le 27 février 1954 à Cannes, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ange-Jean_Gu%C3%A9pin</t>
+          <t>Ange-Jean_Guépin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit-fils d’Ange Guépin, fils d’un oculiste, qui était conseiller municipal de Bordeaux en 1873, Guépin a fait ses études de médecine à Paris, où il est devenu interne des hôpitaux et reçu docteur en 1894[1]. En urologie, on lui doit notamment la « compression digitale de Reliquet et Guépin[2] ».
-Chevalier de la Légion d’honneur depuis le 31 décembre 1906, il a été élevé au grade d’officier le 9 janvier 1914[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit-fils d’Ange Guépin, fils d’un oculiste, qui était conseiller municipal de Bordeaux en 1873, Guépin a fait ses études de médecine à Paris, où il est devenu interne des hôpitaux et reçu docteur en 1894. En urologie, on lui doit notamment la « compression digitale de Reliquet et Guépin ».
+Chevalier de la Légion d’honneur depuis le 31 décembre 1906, il a été élevé au grade d’officier le 9 janvier 1914.
 </t>
         </is>
       </c>
